--- a/errors.xlsx
+++ b/errors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Code</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Two or more DNS servers with the same name.</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>An error occurred while reading network interfaces.</t>
   </si>
 </sst>
 </file>
@@ -86,13 +92,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -375,17 +384,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -402,7 +411,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -413,8 +422,19 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15795" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>An error occurred while reading network interfaces.</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>The argument is neither a `DnsInfo` object nor 'DHCP' string. So the application is unbale to show it to the user.</t>
   </si>
 </sst>
 </file>
@@ -97,11 +103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -384,25 +390,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -411,7 +417,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -422,7 +428,7 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -433,8 +439,19 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
